--- a/hasil/2023_01_lipa_8.xlsx
+++ b/hasil/2023_01_lipa_8.xlsx
@@ -250,7 +250,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 25 Mei 2023</t>
+    <t>Ternate , 05 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_8.xlsx
+++ b/hasil/2023_01_lipa_8.xlsx
@@ -250,13 +250,13 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 05 Juli 2023</t>
+    <t>Ternate , 17 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
   </si>
   <si>
-    <t>Panitera,</t>
+    <t xml:space="preserve">Panitera, </t>
   </si>
   <si>
     <t>Drs. Djabir Sasole, M.H</t>
@@ -516,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -802,7 +802,7 @@
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -839,6 +839,10 @@
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -1140,31 +1144,32 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="85" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="true" style="0"/>
+    <col min="1" max="1" width="4.85546875" customWidth="true" style="0"/>
     <col min="2" max="2" width="6" customWidth="true" style="0"/>
-    <col min="3" max="3" width="42.88671875" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.33203125" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.33203125" customWidth="true" style="0"/>
-    <col min="6" max="6" width="9.33203125" customWidth="true" style="0"/>
-    <col min="7" max="7" width="9.6640625" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9.33203125" customWidth="true" style="0"/>
-    <col min="9" max="9" width="9.33203125" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9.33203125" customWidth="true" style="0"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.6640625" customWidth="true" style="0"/>
-    <col min="14" max="14" width="9.6640625" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9.88671875" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.109375" customWidth="true" style="0"/>
-    <col min="18" max="18" width="10.44140625" customWidth="true" style="0"/>
-    <col min="20" max="20" width="10.5546875" customWidth="true" style="0"/>
+    <col min="3" max="3" width="42.85546875" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.28515625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.28515625" customWidth="true" style="0"/>
+    <col min="6" max="6" width="9.28515625" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.7109375" customWidth="true" style="0"/>
+    <col min="8" max="8" width="9.28515625" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.28515625" customWidth="true" style="0"/>
+    <col min="10" max="10" width="9.28515625" customWidth="true" style="0"/>
+    <col min="12" max="12" width="10.85546875" customWidth="true" style="0"/>
+    <col min="13" max="13" width="10.7109375" customWidth="true" style="0"/>
+    <col min="14" max="14" width="9.7109375" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9.85546875" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.140625" customWidth="true" style="0"/>
+    <col min="18" max="18" width="10.42578125" customWidth="true" style="0"/>
+    <col min="19" max="19" width="9.140625" customWidth="true" style="0"/>
+    <col min="20" max="20" width="10.5703125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" customHeight="1" ht="18.75">
@@ -1190,7 +1195,7 @@
       <c r="S1" s="56"/>
       <c r="T1" s="56"/>
     </row>
-    <row r="2" spans="1:20" customHeight="1" ht="15.6">
+    <row r="2" spans="1:20" customHeight="1" ht="15.75">
       <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
@@ -1213,7 +1218,7 @@
       <c r="S2" s="56"/>
       <c r="T2" s="56"/>
     </row>
-    <row r="3" spans="1:20" customHeight="1" ht="15.6">
+    <row r="3" spans="1:20" customHeight="1" ht="15.75">
       <c r="B3" s="56" t="s">
         <v>2</v>
       </c>
@@ -1236,7 +1241,7 @@
       <c r="S3" s="56"/>
       <c r="T3" s="56"/>
     </row>
-    <row r="4" spans="1:20" customHeight="1" ht="18">
+    <row r="4" spans="1:20" customHeight="1" ht="18.75">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1257,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" customHeight="1" ht="15.6">
+    <row r="5" spans="1:20" customHeight="1" ht="15.75">
       <c r="A5" s="57" t="s">
         <v>4</v>
       </c>
@@ -1287,7 +1292,7 @@
       <c r="S5" s="9"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" customHeight="1" ht="15.6">
+    <row r="6" spans="1:20" customHeight="1" ht="15.75">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="11"/>
@@ -1331,7 +1336,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="19"/>
     </row>
-    <row r="7" spans="1:20" customHeight="1" ht="15.6">
+    <row r="7" spans="1:20" customHeight="1" ht="15.75">
       <c r="A7" s="59"/>
       <c r="B7" s="60"/>
       <c r="C7" s="11" t="s">
@@ -1383,7 +1388,7 @@
       <c r="S7" s="69"/>
       <c r="T7" s="70"/>
     </row>
-    <row r="8" spans="1:20" customHeight="1" ht="15.6">
+    <row r="8" spans="1:20" customHeight="1" ht="15.75">
       <c r="A8" s="59"/>
       <c r="B8" s="60"/>
       <c r="C8" s="16"/>
@@ -1425,7 +1430,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20" customHeight="1" ht="15.6">
+    <row r="9" spans="1:20" customHeight="1" ht="15.75">
       <c r="A9" s="61"/>
       <c r="B9" s="62"/>
       <c r="C9" s="16"/>
@@ -1449,7 +1454,7 @@
       <c r="S9" s="26"/>
       <c r="T9" s="27"/>
     </row>
-    <row r="10" spans="1:20" customHeight="1" ht="15.6">
+    <row r="10" spans="1:20" customHeight="1" ht="15.75">
       <c r="A10" s="53">
         <v>1</v>
       </c>
@@ -1505,7 +1510,7 @@
       <c r="S10" s="55"/>
       <c r="T10" s="54"/>
     </row>
-    <row r="11" spans="1:20" customHeight="1" ht="15.6">
+    <row r="11" spans="1:20" customHeight="1" ht="15.75">
       <c r="A11" s="28" t="s">
         <v>38</v>
       </c>
@@ -3149,7 +3154,7 @@
       <c r="S41" s="39"/>
       <c r="T41" s="40"/>
     </row>
-    <row r="42" spans="1:20" customHeight="1" ht="15.6">
+    <row r="42" spans="1:20" customHeight="1" ht="15.75">
       <c r="A42" s="36"/>
       <c r="B42" s="29"/>
       <c r="C42" s="44" t="s">
@@ -3215,7 +3220,7 @@
       <c r="S42" s="39"/>
       <c r="T42" s="40"/>
     </row>
-    <row r="43" spans="1:20" customHeight="1" ht="15.6">
+    <row r="43" spans="1:20" customHeight="1" ht="15.75">
       <c r="A43" s="49"/>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
@@ -3289,7 +3294,7 @@
       <c r="S45" s="49"/>
       <c r="T45" s="49"/>
     </row>
-    <row r="46" spans="1:20" customHeight="1" ht="15.6">
+    <row r="46" spans="1:20" customHeight="1" ht="15.75">
       <c r="A46" s="49"/>
       <c r="B46" s="46"/>
       <c r="C46" s="46"/>
@@ -3311,7 +3316,7 @@
       <c r="S46" s="49"/>
       <c r="T46" s="49"/>
     </row>
-    <row r="47" spans="1:20" customHeight="1" ht="15.6">
+    <row r="47" spans="1:20" customHeight="1" ht="15.75">
       <c r="A47" s="49"/>
       <c r="B47" s="46"/>
       <c r="C47" s="46"/>
@@ -3333,7 +3338,7 @@
       <c r="S47" s="49"/>
       <c r="T47" s="49"/>
     </row>
-    <row r="48" spans="1:20" customHeight="1" ht="15.6">
+    <row r="48" spans="1:20" customHeight="1" ht="15.75">
       <c r="A48" s="49"/>
       <c r="B48" s="46"/>
       <c r="C48" s="46"/>
@@ -3355,12 +3360,10 @@
       <c r="S48" s="49"/>
       <c r="T48" s="49"/>
     </row>
-    <row r="49" spans="1:20" customHeight="1" ht="20">
+    <row r="49" spans="1:20" customHeight="1" ht="15.75">
       <c r="A49" s="49"/>
       <c r="B49" s="46"/>
-      <c r="C49" s="46" t="s">
-        <v>80</v>
-      </c>
+      <c r="C49" s="46"/>
       <c r="D49" s="46"/>
       <c r="E49" s="51"/>
       <c r="F49" s="46"/>
@@ -3370,9 +3373,7 @@
       <c r="J49" s="46"/>
       <c r="K49" s="46"/>
       <c r="L49" s="46"/>
-      <c r="M49" s="46" t="s">
-        <v>81</v>
-      </c>
+      <c r="M49" s="46"/>
       <c r="N49" s="48"/>
       <c r="O49" s="46"/>
       <c r="P49" s="49"/>
@@ -3385,7 +3386,7 @@
       <c r="A50" s="49"/>
       <c r="B50" s="46"/>
       <c r="C50" s="46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D50" s="46"/>
       <c r="E50" s="51"/>
@@ -3397,7 +3398,7 @@
       <c r="K50" s="46"/>
       <c r="L50" s="46"/>
       <c r="M50" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N50" s="52"/>
       <c r="O50" s="46"/>
@@ -3406,6 +3407,23 @@
       <c r="R50" s="46"/>
       <c r="S50" s="49"/>
       <c r="T50" s="49"/>
+    </row>
+    <row r="51" spans="1:20" customHeight="1" ht="20">
+      <c r="C51" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
@@ -3422,8 +3440,8 @@
     <mergeCell ref="R7:T7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="1.51" right="0.32" top="0.19685039370079" bottom="0.11811023622047" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="5" orientation="landscape" scale="70" fitToHeight="1" fitToWidth="1"/>
+  <pageMargins left="0.98425196850394" right="0.39370078740157" top="0.31496062992126" bottom="0.23622047244094" header="0" footer="0"/>
+  <pageSetup paperSize="5" orientation="landscape" scale="72" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/hasil/2023_01_lipa_8.xlsx
+++ b/hasil/2023_01_lipa_8.xlsx
@@ -250,7 +250,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_8.xlsx
+++ b/hasil/2023_01_lipa_8.xlsx
@@ -250,7 +250,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 02 Agustus 2023</t>
+    <t>Ternate , 05 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
